--- a/引脚表.xlsx
+++ b/引脚表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wyx\Desktop\Facility\source\Facility_code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03347B4E-EB0D-4D1C-9B03-77D03B182ACA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{511C976E-60D6-4C54-8FD6-46BD81F8B162}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8C4070A6-3F05-4A7C-8625-3018DA9E89D3}"/>
+    <workbookView xWindow="-16500" yWindow="-108" windowWidth="16608" windowHeight="8832" xr2:uid="{8C4070A6-3F05-4A7C-8625-3018DA9E89D3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>”基于stm32f的温控器“主控芯片stm32f103c8t6已使用引脚表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -122,6 +122,34 @@
   </si>
   <si>
     <t>温度传感器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PB5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PB6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PB7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KEY0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KEY1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KEY2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -489,10 +517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0255854-B27E-48A9-BF96-83999CEDAE47}">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -607,6 +635,33 @@
         <v>22</v>
       </c>
     </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:L2"/>

--- a/引脚表.xlsx
+++ b/引脚表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wyx\Desktop\Facility\source\Facility_code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{511C976E-60D6-4C54-8FD6-46BD81F8B162}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03446850-5C72-4D9A-9D83-5581F40C164E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16500" yWindow="-108" windowWidth="16608" windowHeight="8832" xr2:uid="{8C4070A6-3F05-4A7C-8625-3018DA9E89D3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8C4070A6-3F05-4A7C-8625-3018DA9E89D3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>”基于stm32f的温控器“主控芯片stm32f103c8t6已使用引脚表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -45,111 +45,115 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>usart1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指示运行中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pc调试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数码管</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SH-CP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST_CP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RXD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示温度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DS18B20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>温度传感器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PB5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PB6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PB7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BEEP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>PA8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>usart1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PA9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PA10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>指示运行中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pc调试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数码管</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PA5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SH-CP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PA6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PA7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ST_CP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RXD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TXD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示温度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DS18B20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PA4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DQ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>温度传感器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PB5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PB6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PB7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KEY0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KEY1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KEY2</t>
+    <t>ADD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SUB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SET</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -517,10 +521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0255854-B27E-48A9-BF96-83999CEDAE47}">
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -562,104 +566,109 @@
       <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
         <v>9</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>10</v>
       </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
         <v>12</v>
-      </c>
-      <c r="C9" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
         <v>14</v>
-      </c>
-      <c r="C10" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
         <v>19</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>20</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>21</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
         <v>23</v>
       </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>26</v>
       </c>
-      <c r="C16" t="s">
-        <v>29</v>
+      <c r="B18" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/引脚表.xlsx
+++ b/引脚表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wyx\Desktop\Facility\source\Facility_code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03446850-5C72-4D9A-9D83-5581F40C164E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEEC96CE-BA9C-4F12-B789-193E3F38C44B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8C4070A6-3F05-4A7C-8625-3018DA9E89D3}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>”基于stm32f的温控器“主控芯片stm32f103c8t6已使用引脚表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -154,6 +154,22 @@
   </si>
   <si>
     <t>SET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置模式指示灯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加热输出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -521,10 +537,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0255854-B27E-48A9-BF96-83999CEDAE47}">
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -570,105 +586,121 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
         <v>16</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
         <v>5</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>9</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>10</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D9" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
         <v>13</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>18</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>19</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C13" t="s">
         <v>20</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D13" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>22</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>23</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C15" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
         <v>25</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C17" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>26</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/引脚表.xlsx
+++ b/引脚表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wyx\Desktop\Facility\source\Facility_code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEEC96CE-BA9C-4F12-B789-193E3F38C44B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D274E17F-2CD6-4DEE-B214-40BE872CFCE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8C4070A6-3F05-4A7C-8625-3018DA9E89D3}"/>
+    <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8C4070A6-3F05-4A7C-8625-3018DA9E89D3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -539,7 +539,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0255854-B27E-48A9-BF96-83999CEDAE47}">
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
@@ -692,7 +692,7 @@
         <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -700,7 +700,7 @@
         <v>33</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
